--- a/Assignment_4.xlsx
+++ b/Assignment_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gosha Maruzhenko\Documents\Eng Phys\Summer 2019\ENPH 257\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gosha Maruzhenko\Code\ENPH_257_Assignment_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D0484-B874-4C8E-B871-4BEC99F45E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E48E34-9FA6-4E45-B47C-040509D24C7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11010" xr2:uid="{321F8A98-C970-47F6-9D0B-7797CCA90D49}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>CH4</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>25 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff = </t>
   </si>
 </sst>
 </file>
@@ -459,26 +462,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15083DB-E6A5-4593-B771-5AA5BD148235}">
-  <dimension ref="B1:O11"/>
+  <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -499,7 +502,7 @@
         <v>298.14999999999998</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -519,7 +522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -549,7 +552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -576,7 +579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -606,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>20</v>
       </c>
@@ -614,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>21</v>
       </c>
@@ -626,7 +629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>23</v>
       </c>
@@ -645,6 +648,15 @@
       </c>
       <c r="O11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <f>K10-K11</f>
+        <v>-61795.252499999959</v>
       </c>
     </row>
   </sheetData>
